--- a/ConverterPy/dblist_full.xlsx
+++ b/ConverterPy/dblist_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NANLI_DEV\DDATOZiiPOS_Config\ConverterPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nan_Dev\DDATOZiiPOS_Config\ConverterPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71FFD0D-222A-487E-BFD6-7B54AF3FE44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99058CC8-A14C-4FD5-9296-58F7969E9B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1725" windowWidth="25515" windowHeight="13725" xr2:uid="{8C629834-DCE4-40C6-8641-352A07DED492}"/>
+    <workbookView xWindow="5445" yWindow="8415" windowWidth="21600" windowHeight="11385" xr2:uid="{8C629834-DCE4-40C6-8641-352A07DED492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>dblist</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>03Okami_Wantirna</t>
-  </si>
-  <si>
-    <t>04Okami_Footscray</t>
-  </si>
-  <si>
-    <t>05Okami_Brunswick</t>
   </si>
   <si>
     <t>06Okami_Fairfield</t>
@@ -502,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5058723-EFDB-46D1-BC8A-48E6C31AEB4F}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,17 +569,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -696,16 +690,6 @@
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ConverterPy/dblist_full.xlsx
+++ b/ConverterPy/dblist_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nan_Dev\DDATOZiiPOS_Config\ConverterPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99058CC8-A14C-4FD5-9296-58F7969E9B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A6088B-0994-4BFC-B847-CAEE3EC1540A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="8415" windowWidth="21600" windowHeight="11385" xr2:uid="{8C629834-DCE4-40C6-8641-352A07DED492}"/>
+    <workbookView xWindow="6555" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{8C629834-DCE4-40C6-8641-352A07DED492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>dblist</t>
   </si>
@@ -145,6 +145,123 @@
   </si>
   <si>
     <t>16Okami_Hoppers_Crossing</t>
+  </si>
+  <si>
+    <t>01Okami_Hampton</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Caulfield</t>
+  </si>
+  <si>
+    <t>Wantirna</t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>Greensborough</t>
+  </si>
+  <si>
+    <t>Ballarat</t>
+  </si>
+  <si>
+    <t>Frankston</t>
+  </si>
+  <si>
+    <t>Geelong</t>
+  </si>
+  <si>
+    <t>Chirnside_Park</t>
+  </si>
+  <si>
+    <t>Narre_Warren</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Cranbourne</t>
+  </si>
+  <si>
+    <t>Hoppers_Crossing</t>
+  </si>
+  <si>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Caroline_Springs</t>
+  </si>
+  <si>
+    <t>Chelsea_Heights</t>
+  </si>
+  <si>
+    <t>Craigieburn</t>
+  </si>
+  <si>
+    <t>Mornington</t>
+  </si>
+  <si>
+    <t>Pakenham</t>
+  </si>
+  <si>
+    <t>Marrickville</t>
+  </si>
+  <si>
+    <t>Niddrie</t>
+  </si>
+  <si>
+    <t>Traralgon</t>
+  </si>
+  <si>
+    <t>Silverwater</t>
+  </si>
+  <si>
+    <t>Cronulla</t>
+  </si>
+  <si>
+    <t>Penrith</t>
+  </si>
+  <si>
+    <t>Bendigo</t>
+  </si>
+  <si>
+    <t>Wagga_Wagga</t>
+  </si>
+  <si>
+    <t>Pennant_hills</t>
+  </si>
+  <si>
+    <t>Warragul</t>
+  </si>
+  <si>
+    <t>Mawson</t>
+  </si>
+  <si>
+    <t>Dubbo</t>
+  </si>
+  <si>
+    <t>Melton</t>
+  </si>
+  <si>
+    <t>Whittlesea</t>
+  </si>
+  <si>
+    <t>Williamstown</t>
+  </si>
+  <si>
+    <t>ROSE_BAY</t>
+  </si>
+  <si>
+    <t>Braddon</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>BranchName</t>
   </si>
 </sst>
 </file>
@@ -496,203 +613,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5058723-EFDB-46D1-BC8A-48E6C31AEB4F}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B25" sqref="B25:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>